--- a/resultado_comparacion_OEI.xlsx
+++ b/resultado_comparacion_OEI.xlsx
@@ -29,12 +29,22 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F0E68C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0090EE90"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -55,11 +65,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -466,270 +478,270 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>OIE.03</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Promover el acceso a servicios educativos, deportivos y recreacionales con enfoque intercultural e inclusivo para la población local</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>OEI.03</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>Promover el acceso a servicios educativos,  deportivos y recreacionales con enfoque intercultural e inclusivo para la población local</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="E2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>Coincidencia parcial</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>OIE.04</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>Promover condiciones ambientales saludables y sostenibles para  la población local</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>OEI.04</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>Promover condiciones ambientales saludables y sostenibles para  la población local</t>
         </is>
       </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="E3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>Coincidencia exacta</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>OEI.05</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>Reducir la exposición al riesgo de desastres de origen natural o antrópico de la población local</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>OEI.05</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>Reducir la exposición al riesgo de desastres de origen natural o antrópico de la población local</t>
         </is>
       </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="E4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>Coincidencia exacta</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>OIE.06</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>Mejorar el acceso a servicios de protección social y defensa de derechos de la población vulnerable de la localidad</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>OEI.06</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>Mejorar el acceso a servicios de protección social y defensa de derechos de la población vulnerable de la localidad</t>
         </is>
       </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="E5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>Coincidencia exacta</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>OEI.07</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>Fortalecer la prevención y disuasión del delito y violencia en beneficio de la población local</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>OEI.07</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t>Fortalecer la prevención y disuasión del delito y violencia en beneficio de la población local</t>
         </is>
       </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="E6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
         <is>
           <t>Coincidencia exacta</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>OEI.08</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Garantizar la provisión de los servicios de agua potable y saneamiento en beneficio de la población local</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>OEI.08</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>Garantizar la provisión de los servicios de agua potable y saneamiento en beneficio de la población local</t>
         </is>
       </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="E7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
         <is>
           <t>Coincidencia exacta</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>OEI.09</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>Impulsar el crecimiento de la actividad empresarial, de emprendimientos y MYPES en la localidad</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>OEI.09</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="2" t="inlineStr">
         <is>
           <t>Impulsar el crecimiento de la actividad empresarial,  de emprendimientos y MYPES en la localidad</t>
         </is>
       </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="E8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>Coincidencia parcial</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>OIE.10</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>Mejorar el sistema de transporte y  transitabilidad en beneficio de la población local</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>OEI.10</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>Mejorar el sistema de transporte y  transitabilidad en beneficio de la población local</t>
         </is>
       </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="E9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
         <is>
           <t>Coincidencia exacta</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>OIE.11</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>Modernizar la Gestión Institucional</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>OEI.11</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="3" t="inlineStr">
         <is>
           <t>Modernizar la Gestión Institucional</t>
         </is>
       </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="E10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
         <is>
           <t>Coincidencia exacta</t>
         </is>
